--- a/Mifos Automation Excels/Client/4092-CREATGROUP-WITHOUTCLIENTATTACHED-ACTIVE.xlsx
+++ b/Mifos Automation Excels/Client/4092-CREATGROUP-WITHOUTCLIENTATTACHED-ACTIVE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>office</t>
   </si>
@@ -24,9 +24,6 @@
   </si>
   <si>
     <t>submittedon</t>
-  </si>
-  <si>
-    <t>Group1</t>
   </si>
   <si>
     <t>staff</t>
@@ -438,14 +435,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
@@ -462,10 +459,10 @@
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -478,31 +475,31 @@
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="6">
         <v>42005</v>
@@ -510,10 +507,10 @@
     </row>
     <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -526,7 +523,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -537,10 +536,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
